--- a/Data/Initial_indoles.xlsx
+++ b/Data/Initial_indoles.xlsx
@@ -28,136 +28,136 @@
     <t>smiles</t>
   </si>
   <si>
+    <t>CC(C)OCC1=CNC2=CC=CC=C21</t>
+  </si>
+  <si>
+    <t>O=C(C)OCC1=CN(C(C)=O)C2=CC=CC=C21</t>
+  </si>
+  <si>
+    <t>[N-]=[N+]=NCC1=CC=C(CN2N=NC(COCC3=CNC4=C3C=CC=C4)=C2)C=C1</t>
+  </si>
+  <si>
+    <t>CCCCOCC1=CNC2=CC=CC=C21</t>
+  </si>
+  <si>
+    <t>CCC1=NC=CN1CC2=CNC3=CC=CC=C32</t>
+  </si>
+  <si>
+    <t>CCOCC1=CNC2=CC=CC=C21</t>
+  </si>
+  <si>
+    <t>O=C(C(C=CC=C1)=C1C2=O)N2CCCCCCCCN3N=NC(COCC4=CNC5=C4C=CC=C5)=C3</t>
+  </si>
+  <si>
+    <t>C12=CC=CC=C1C(CN3C=CN=C3)=CN2</t>
+  </si>
+  <si>
+    <t>C12=CC=CC=C1NC=C2COCC3=CN(CCCCCCCCCCCCN4N=NC(COCC5=CNC6=C5C=CC=C6)=C4)N=N3</t>
+  </si>
+  <si>
+    <t>CCC1=NC(C)=CN1CC2=CNC3=CC=CC=C32</t>
+  </si>
+  <si>
+    <t>CC1=NC=CN1CC2=CNC3=CC=CC=C32</t>
+  </si>
+  <si>
+    <t>O=C(C(C=CC=C1)=C1C2=O)N2CCCCCCCCCCCCN3N=NC(COCC4=CNC5=C4C=CC=C5)=C3</t>
+  </si>
+  <si>
+    <t>O=C(C=C1)N(CC2=CNC3=C2C=CC=C3)C(N1CC4=CNC5=CC=CC=C54)=O</t>
+  </si>
+  <si>
+    <t>COCC1=CNC2=CC=CC=C21</t>
+  </si>
+  <si>
+    <t>CC(C)C1=NC=CN1CC2=CNC3=CC=CC=C32</t>
+  </si>
+  <si>
+    <t>O=C(C)N(C1=C2C=CC=C1)C=C2CN3N=NC(COCC4=CNC5=C4C=CC=C5)=C3</t>
+  </si>
+  <si>
+    <t>O=C(CC1=O)N(CC2=CNC3=C2C=CC=C3)C(N1CC4=CNC5=CC=CC=C54)=O</t>
+  </si>
+  <si>
+    <t>CCCOCC1=CNC2=CC=CC=C21</t>
+  </si>
+  <si>
+    <t>O=C(C(C=CC=C1)=C1C2=O)N2CCCN3N=NC(COCC4=CNC5=C4C=CC=C5)=C3</t>
+  </si>
+  <si>
+    <t>C12=CC=CC=C1C(CN3C(C4=CC=CC=C4)N=CC3)=CN2</t>
+  </si>
+  <si>
+    <t>S=C(N1CCCC1)SCC2=CNC3=CC=CC=C32</t>
+  </si>
+  <si>
+    <t>O=C(C=C1C)NC(N1CC2=CNC3=CC=CC=C32)=S</t>
+  </si>
+  <si>
+    <t>O=C(C)N(C1=C2C=CC=C1)C=C2CN3N=NC(CN4C=C(COCC)C5=C4C=CC=C5)=C3</t>
+  </si>
+  <si>
+    <t>ClC1=C(Cl)N(C=N1)CC2=CNC3=CC=CC=C32</t>
+  </si>
+  <si>
+    <t>O=C(C=C1)NC(N1CC2=CNC3=CC=CC=C32)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(C=CC=C2)C(N1CC3=CNC4=CC=CC=C43)=O</t>
+  </si>
+  <si>
+    <t>OCC1=CN(C(C)=O)C2=CC=CC=C21</t>
+  </si>
+  <si>
+    <t>C12=CC=CC=C1C(CC3=CNC4=C3C=CC=C4)=CN2</t>
+  </si>
+  <si>
+    <t>S=C1N(CC2=CNC3=CC=CC=C32)C(C=CC=C4)=C4O1</t>
+  </si>
+  <si>
+    <t>O=C(C(C=CC=C1)=C1C2=O)N2CCCCCN3N=NC(COCC4=CNC5=C4C=CC=C5)=C3</t>
+  </si>
+  <si>
+    <t>CCCCCOCC1=CNC2=CC=CC=C21</t>
+  </si>
+  <si>
+    <t>O=C(C=C1C)N(CC2=CNC3=C2C=CC=C3)C(N1CC4=CNC5=CC=CC=C54)=O</t>
+  </si>
+  <si>
+    <t>[N-]=[N+]=NCC1=C(CN2N=NC(COCC3=CNC4=C3C=CC=C4)=C2)C=CC=C1</t>
+  </si>
+  <si>
+    <t>O=C(C(C)=C1)N(CC2=CNC3=C2C=CC=C3)C(N1CC4=CNC5=CC=CC=C54)=O</t>
+  </si>
+  <si>
+    <t>C12=CC=CC=C1NC=C2COCC3=CN(CCCCCCCCN4N=NC(COCC5=CNC6=C5C=CC=C6)=C4)N=N3</t>
+  </si>
+  <si>
+    <t>C12=CC=CC=C1NC=C2COCC3=CN(CCCN4N=NC(COCC5=CNC6=C5C=CC=C6)=C4)N=N3</t>
+  </si>
+  <si>
+    <t>[N-]=[N+]=NCC1=CC(CN=[N+]=[N-])=CC(CN2N=NC(COCC3=CNC4=C3C=CC=C4)=C2)=C1</t>
+  </si>
+  <si>
+    <t>C12=CC=CC=C1C(CN3C(C=CC=C4)=C4N=C3)=CN2</t>
+  </si>
+  <si>
+    <t>O=C(C=C1)NC(N1CC2=CNC3=CC=CC=C32)=S</t>
+  </si>
+  <si>
+    <t>CC(C)CCOCC1=CNC2=CC=CC=C21</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(C=CC=C2)C(N1CC3=CN(C(C)=C)C4=CC=CC=C43)=O</t>
+  </si>
+  <si>
     <t>S=C1N(CC2=CNC3=CC=CC=C32)C(C=CC=C4)=C4S1</t>
   </si>
   <si>
-    <t>OCC1=CN(C(C)=O)C2=CC=CC=C21</t>
-  </si>
-  <si>
-    <t>CCCOCC1=CNC2=CC=CC=C21</t>
-  </si>
-  <si>
-    <t>S=C1N(CC2=CNC3=CC=CC=C32)C(C=CC=C4)=C4O1</t>
-  </si>
-  <si>
-    <t>O=C(C(C=CC=C1)=C1C2=O)N2CCCCCCCCN3N=NC(COCC4=CNC5=C4C=CC=C5)=C3</t>
-  </si>
-  <si>
-    <t>O=C(C)N(C1=C2C=CC=C1)C=C2CN3N=NC(CN4C=C(COCC)C5=C4C=CC=C5)=C3</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NCC1=CC(CN=[N+]=[N-])=CC(CN2N=NC(COCC3=CNC4=C3C=CC=C4)=C2)=C1</t>
-  </si>
-  <si>
-    <t>O=C(C=C1)NC(N1CC2=CNC3=CC=CC=C32)=O</t>
-  </si>
-  <si>
-    <t>C12=CC=CC=C1NC=C2COCC3=CN(CCCCCCCCCCCCN4N=NC(COCC5=CNC6=C5C=CC=C6)=C4)N=N3</t>
-  </si>
-  <si>
-    <t>O=C(C(C=CC=C1)=C1C2=O)N2CCCN3N=NC(COCC4=CNC5=C4C=CC=C5)=C3</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(C=CC=C2)C(N1CC3=CN(C(C)=C)C4=CC=CC=C43)=O</t>
-  </si>
-  <si>
-    <t>O=C(C(C=CC=C1)=C1C2=O)N2CCCCCCCCCCCCN3N=NC(COCC4=CNC5=C4C=CC=C5)=C3</t>
-  </si>
-  <si>
-    <t>CCCCOCC1=CNC2=CC=CC=C21</t>
-  </si>
-  <si>
-    <t>CCCCCOCC1=CNC2=CC=CC=C21</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(C=CC=C2)C(N1CC3=CNC4=CC=CC=C43)=O</t>
-  </si>
-  <si>
-    <t>O=C(C=C1C)NC(N1CC2=CNC3=CC=CC=C32)=S</t>
-  </si>
-  <si>
-    <t>ClC1=C(Cl)N(C=N1)CC2=CNC3=CC=CC=C32</t>
-  </si>
-  <si>
-    <t>C12=CC=CC=C1C(CN3C(C4=CC=CC=C4)N=CC3)=CN2</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NCC1=CC=C(CN2N=NC(COCC3=CNC4=C3C=CC=C4)=C2)C=C1</t>
-  </si>
-  <si>
-    <t>CC1=NC=CN1CC2=CNC3=CC=CC=C32</t>
-  </si>
-  <si>
-    <t>O=C(C=C1)N(CC2=CNC3=C2C=CC=C3)C(N1CC4=CNC5=CC=CC=C54)=O</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NCC1=C(CN2N=NC(COCC3=CNC4=C3C=CC=C4)=C2)C=CC=C1</t>
-  </si>
-  <si>
-    <t>O=C(C=C1)NC(N1CC2=CNC3=CC=CC=C32)=S</t>
-  </si>
-  <si>
-    <t>COCC1=CNC2=CC=CC=C21</t>
-  </si>
-  <si>
-    <t>CC(C)OCC1=CNC2=CC=CC=C21</t>
+    <t>CN(C)CC1=CN(C2=C1C=CC=C2)CC3=CNC4=CC=CC=C43</t>
   </si>
   <si>
     <t>C12=CC=CC=C1NC=C2COCC3=CN(CCCCCN4N=NC(COCC5=CNC6=C5C=CC=C6)=C4)N=N3</t>
-  </si>
-  <si>
-    <t>O=C(C(C=CC=C1)=C1C2=O)N2CCCCCN3N=NC(COCC4=CNC5=C4C=CC=C5)=C3</t>
-  </si>
-  <si>
-    <t>CCOCC1=CNC2=CC=CC=C21</t>
-  </si>
-  <si>
-    <t>C12=CC=CC=C1C(CN3C=CN=C3)=CN2</t>
-  </si>
-  <si>
-    <t>CCC1=NC=CN1CC2=CNC3=CC=CC=C32</t>
-  </si>
-  <si>
-    <t>CN(C)CC1=CN(C2=C1C=CC=C2)CC3=CNC4=CC=CC=C43</t>
-  </si>
-  <si>
-    <t>O=C(CC1=O)N(CC2=CNC3=C2C=CC=C3)C(N1CC4=CNC5=CC=CC=C54)=O</t>
-  </si>
-  <si>
-    <t>C12=CC=CC=C1C(CC3=CNC4=C3C=CC=C4)=CN2</t>
-  </si>
-  <si>
-    <t>CCC1=NC(C)=CN1CC2=CNC3=CC=CC=C32</t>
-  </si>
-  <si>
-    <t>C12=CC=CC=C1C(CN3C(C=CC=C4)=C4N=C3)=CN2</t>
-  </si>
-  <si>
-    <t>C12=CC=CC=C1NC=C2COCC3=CN(CCCN4N=NC(COCC5=CNC6=C5C=CC=C6)=C4)N=N3</t>
-  </si>
-  <si>
-    <t>C12=CC=CC=C1NC=C2COCC3=CN(CCCCCCCCN4N=NC(COCC5=CNC6=C5C=CC=C6)=C4)N=N3</t>
-  </si>
-  <si>
-    <t>CC(C)CCOCC1=CNC2=CC=CC=C21</t>
-  </si>
-  <si>
-    <t>O=C(C)N(C1=C2C=CC=C1)C=C2CN3N=NC(COCC4=CNC5=C4C=CC=C5)=C3</t>
-  </si>
-  <si>
-    <t>O=C(C=C1C)N(CC2=CNC3=C2C=CC=C3)C(N1CC4=CNC5=CC=CC=C54)=O</t>
-  </si>
-  <si>
-    <t>CC(C)C1=NC=CN1CC2=CNC3=CC=CC=C32</t>
-  </si>
-  <si>
-    <t>S=C(N1CCCC1)SCC2=CNC3=CC=CC=C32</t>
-  </si>
-  <si>
-    <t>O=C(C)OCC1=CN(C(C)=O)C2=CC=CC=C21</t>
-  </si>
-  <si>
-    <t>O=C(C(C)=C1)N(CC2=CNC3=C2C=CC=C3)C(N1CC4=CNC5=CC=CC=C54)=O</t>
   </si>
 </sst>
 </file>
@@ -540,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8999907350741918</v>
+        <v>1.311669286117083</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>37.4375</v>
+        <v>19.31034482758621</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -557,13 +557,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9585642844617788</v>
+        <v>1.244521127549286</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>23.36</v>
+        <v>24.06666666666667</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -574,13 +574,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9583893353290052</v>
+        <v>0.8753580932907465</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>19.31034482758621</v>
+        <v>24.38297872340426</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -591,13 +591,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9004976880935218</v>
+        <v>0.9385658198775615</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>31.4375</v>
+        <v>18.6875</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -608,13 +608,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9684214827948494</v>
+        <v>1.04975118595367</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>22.02985074626866</v>
+        <v>20.8125</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -625,13 +625,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.139485172937397</v>
+        <v>1.035724502696078</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>22.7719298245614</v>
+        <v>20.07692307692308</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -642,13 +642,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8832887584409862</v>
+        <v>0.9684214827948494</v>
       </c>
       <c r="C8">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>25.57692307692308</v>
+        <v>22.02985074626866</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -659,13 +659,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.122806613506814</v>
+        <v>0.7693544355343088</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>22.69230769230769</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -693,13 +693,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.03392059789588</v>
+        <v>1.160510581035949</v>
       </c>
       <c r="C11">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>24.73076923076923</v>
+        <v>20.11428571428571</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -710,13 +710,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.370598901163396</v>
+        <v>1.140692878797657</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>24.05</v>
+        <v>21.6551724137931</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -744,13 +744,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9385658198775615</v>
+        <v>1.107918156523796</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D14">
-        <v>18.6875</v>
+        <v>24.65217391304348</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -761,13 +761,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9189698581762136</v>
+        <v>0.7521266693398005</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>18.17142857142857</v>
+        <v>21.04347826086957</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -778,13 +778,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05584302453426</v>
+        <v>0.9933412969293903</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>25.75757575757576</v>
+        <v>20.11428571428571</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -795,13 +795,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.232605655497303</v>
+        <v>1.00638807734076</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>30.75</v>
+        <v>23.96078431372549</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -812,13 +812,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6740665205895153</v>
+        <v>1.287238556832638</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>44.84615384615385</v>
+        <v>25.48936170212766</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -829,13 +829,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8956654113823986</v>
+        <v>0.9583893353290052</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>21.36842105263158</v>
+        <v>19.31034482758621</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -846,13 +846,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8753580932907465</v>
+        <v>1.03392059789588</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>24.38297872340426</v>
+        <v>24.73076923076923</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -863,13 +863,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.140692878797657</v>
+        <v>0.8956654113823986</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>21.6551724137931</v>
+        <v>21.36842105263158</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -880,13 +880,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.107918156523796</v>
+        <v>0.9331395345229834</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>24.65217391304348</v>
+        <v>33.23529411764706</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8721801182701435</v>
+        <v>1.232605655497303</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>24.38297872340426</v>
+        <v>30.75</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -914,13 +914,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.044701124793211</v>
+        <v>1.139485172937397</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D24">
-        <v>32.62068965517241</v>
+        <v>22.7719298245614</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -931,13 +931,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7521266693398005</v>
+        <v>0.6740665205895153</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>21.04347826086957</v>
+        <v>44.84615384615385</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -948,13 +948,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.311669286117083</v>
+        <v>1.122806613506814</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>19.31034482758621</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -965,13 +965,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8513412668493303</v>
+        <v>1.05584302453426</v>
       </c>
       <c r="C27">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>22.47887323943662</v>
+        <v>25.75757575757576</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -982,13 +982,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9951039590399727</v>
+        <v>0.9585642844617788</v>
       </c>
       <c r="C28">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>23.48275862068965</v>
+        <v>23.36</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -999,13 +999,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.035724502696078</v>
+        <v>0.7775529525409776</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>20.07692307692308</v>
+        <v>21.93939393939394</v>
       </c>
       <c r="E29" t="s">
         <v>31</v>
@@ -1016,13 +1016,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.7693544355343088</v>
+        <v>0.9004976880935218</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>22.69230769230769</v>
+        <v>31.4375</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -1033,13 +1033,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.04975118595367</v>
+        <v>0.9951039590399727</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D31">
-        <v>20.8125</v>
+        <v>23.48275862068965</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -1050,13 +1050,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8474865924491541</v>
+        <v>0.9189698581762136</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>20.18181818181818</v>
+        <v>18.17142857142857</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -1067,13 +1067,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.287238556832638</v>
+        <v>1.232027283465386</v>
       </c>
       <c r="C33">
         <v>49</v>
       </c>
       <c r="D33">
-        <v>25.48936170212766</v>
+        <v>23.91836734693878</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
@@ -1084,13 +1084,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.7775529525409776</v>
+        <v>0.8721801182701435</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D34">
-        <v>21.93939393939394</v>
+        <v>24.38297872340426</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -1101,13 +1101,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.160510581035949</v>
+        <v>1.119298082631806</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D35">
-        <v>20.11428571428571</v>
+        <v>23.91836734693878</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
@@ -1118,13 +1118,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8592138602159805</v>
+        <v>0.831907986133423</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>21.375</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
@@ -1152,13 +1152,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.831907986133423</v>
+        <v>0.8832887584409862</v>
       </c>
       <c r="C38">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D38">
-        <v>21.375</v>
+        <v>25.57692307692308</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
@@ -1169,13 +1169,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9500983063368235</v>
+        <v>0.8592138602159805</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D39">
-        <v>18.17142857142857</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -1186,13 +1186,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.00638807734076</v>
+        <v>1.044701124793211</v>
       </c>
       <c r="C40">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D40">
-        <v>23.96078431372549</v>
+        <v>32.62068965517241</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
@@ -1203,13 +1203,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.232027283465386</v>
+        <v>0.9500983063368235</v>
       </c>
       <c r="C41">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D41">
-        <v>23.91836734693878</v>
+        <v>18.17142857142857</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
@@ -1220,13 +1220,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9933412969293903</v>
+        <v>1.370598901163396</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>20.11428571428571</v>
+        <v>24.05</v>
       </c>
       <c r="E42" t="s">
         <v>44</v>
@@ -1237,13 +1237,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9331395345229834</v>
+        <v>0.8999907350741918</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D43">
-        <v>33.23529411764706</v>
+        <v>37.4375</v>
       </c>
       <c r="E43" t="s">
         <v>45</v>
@@ -1254,13 +1254,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.244521127549286</v>
+        <v>0.8474865924491541</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D44">
-        <v>24.06666666666667</v>
+        <v>20.18181818181818</v>
       </c>
       <c r="E44" t="s">
         <v>46</v>
@@ -1271,13 +1271,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.119298082631806</v>
+        <v>0.8513412668493303</v>
       </c>
       <c r="C45">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D45">
-        <v>23.91836734693878</v>
+        <v>22.47887323943662</v>
       </c>
       <c r="E45" t="s">
         <v>47</v>
